--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2918167022265689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.366301983223368</v>
+        <v>3.366301983223366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1167051929395779</v>
@@ -649,7 +649,7 @@
         <v>-0.01533219833833725</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2011214712366265</v>
+        <v>0.2011214712366263</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.253970678889512</v>
+        <v>-1.256172534986631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.55740232163765</v>
+        <v>-2.237900903603717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.379035740028072</v>
+        <v>-4.094385836899397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2289124793641718</v>
+        <v>0.04864969459653493</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1009932920886102</v>
+        <v>-0.0954848750565742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1329853101672334</v>
+        <v>-0.1223384463606599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2057213853658394</v>
+        <v>-0.2001996091077453</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.009867112356883014</v>
+        <v>0.005708373363295145</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.224359006854097</v>
+        <v>3.994778768622018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.532449067840803</v>
+        <v>4.230478766198664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.307090851023769</v>
+        <v>3.461073299623607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.484313598313139</v>
+        <v>7.03716619693023</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4133405763866885</v>
+        <v>0.4008652119800406</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2995419645061062</v>
+        <v>0.2794850065873071</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1974262052725482</v>
+        <v>0.2015468974159851</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4433962699034391</v>
+        <v>0.4856569645793734</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.442817758820166</v>
+        <v>-2.452348332056265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.822969269592715</v>
+        <v>-1.752188457596848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.977516569775339</v>
+        <v>-3.077436911342137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.409414623545941</v>
+        <v>-4.398110867304441</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6478356600517878</v>
+        <v>-0.6460240613759773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4296029036340825</v>
+        <v>-0.4200507723371263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4627876850201552</v>
+        <v>-0.4766858099948854</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5315743030813925</v>
+        <v>-0.523478740654013</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3515831389498306</v>
+        <v>-0.3377189516855002</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5002401137955195</v>
+        <v>0.7258366404496173</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.2315056223375347</v>
+        <v>-0.1425485132547317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.99277309992733</v>
+        <v>-1.928471539796807</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09619799729891054</v>
+        <v>-0.1143602190889214</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1703147903962103</v>
+        <v>0.2375761184526912</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03522965647543061</v>
+        <v>-0.02776844103285483</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2932898388065808</v>
+        <v>-0.2841556865134549</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.860808802027494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.452161889942365</v>
+        <v>-3.452161889942363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1596597072312696</v>
@@ -849,7 +849,7 @@
         <v>-0.4984743635402039</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5757601145855338</v>
+        <v>-0.5757601145855337</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.920869203948623</v>
+        <v>-1.788172092371154</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.395473935222672</v>
+        <v>-3.503172184355155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.410119895453604</v>
+        <v>-4.163037280104471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.491781581016462</v>
+        <v>-5.391929919022838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7490094369974843</v>
+        <v>-0.7216162017915155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8150160947414493</v>
+        <v>-0.8578655996136171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7901060392210161</v>
+        <v>-0.7983406388964386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7272039459040032</v>
+        <v>-0.7263328734633137</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.441341077374683</v>
+        <v>1.512180049072686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7088824346294907</v>
+        <v>0.5258372637029416</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2367144662030528</v>
+        <v>0.1297294421042264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.747843482843128</v>
+        <v>-1.655461456064161</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.6761926339297</v>
+        <v>1.663560638539216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.514062844436315</v>
+        <v>0.4281675769500665</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1611797976069966</v>
+        <v>0.1495997464613475</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3289816955907722</v>
+        <v>-0.3295224075200869</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.5078838283131187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.257573665739831</v>
+        <v>-1.257573665739829</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08682244202863781</v>
@@ -949,7 +949,7 @@
         <v>-0.06062888560101325</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1448638459906897</v>
+        <v>-0.1448638459906895</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6526985893170212</v>
+        <v>-0.5814997343520362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2131187421703785</v>
+        <v>-0.2100301904787696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.780578759602139</v>
+        <v>-1.758318084900979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.346177917349253</v>
+        <v>-2.391499499074547</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1073510211757825</v>
+        <v>-0.09326028792863239</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02680140676016218</v>
+        <v>-0.02760356591903941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1975740962924821</v>
+        <v>-0.1938214323479061</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.250755073902021</v>
+        <v>-0.2562277373413826</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.63803353328432</v>
+        <v>1.588627785117399</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.422157400416766</v>
+        <v>2.513073203984538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8686766004028614</v>
+        <v>0.8120879158149035</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.2428285121742227</v>
+        <v>-0.1875461164332676</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3251995681888217</v>
+        <v>0.3185870801638073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3709396518256908</v>
+        <v>0.3839581277820497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1119645274736398</v>
+        <v>0.1087220985384619</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02855337622077603</v>
+        <v>-0.02375015920826292</v>
       </c>
     </row>
     <row r="16">
